--- a/Data/PR_2024/Metadata.xlsx
+++ b/Data/PR_2024/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxxtd\OneDrive\Desktop\tegula_silvetia\Data\PR_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151B553B-6214-4A68-A054-29CC87BABDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42647DC-4CAB-4123-9F63-5330C43D41B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="23">
   <si>
     <t>block</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1488,6 +1488,80 @@
         <v>7.0833333333333331E-2</v>
       </c>
     </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" s="2">
+        <v>9.0972222222222218E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="2">
+        <v>9.0972222222222218E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="2">
+        <v>9.0972222222222218E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" s="2">
+        <v>9.0972222222222218E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" s="2">
+        <v>9.0972222222222218E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="2">
+        <v>9.0972222222222218E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="M50" s="2">
+        <v>9.0972222222222218E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
